--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>458675.3503382324</v>
+        <v>447993.5548804235</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707512</v>
+        <v>12908190.36482258</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901943</v>
+        <v>3555535.184291204</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7097371.325916216</v>
+        <v>7527652.200634215</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>339.5618019085028</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>153.1824608301599</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -722,7 +724,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -820,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.12043047005175</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -896,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>324.3864392672284</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>41.90538346881312</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>260.4446813871638</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>186.8101322129348</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>117.7395304238318</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1142,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>200.0149428645427</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>51.58543740429392</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>143.1345615166906</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>76.45328601277664</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>24.12958620662116</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>73.04347205454189</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.67748875058538</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.3263863974101</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>186.810132212935</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2287,10 +2289,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.06527153187834</v>
+        <v>126.7163958965524</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2527,22 +2529,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>180.0196592840953</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>244.3275881150121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>102.0412378013742</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>63.12615032060566</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>64.94529080442186</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,10 +3006,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3047,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170415</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3317,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.9095796790295</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031836</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3898,22 +3900,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>60.15466974967035</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3955,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>85.96456344791471</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3980,22 +3982,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>350.0885608599374</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4144,13 +4146,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>9.807831279347173</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>208.5597867864758</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.4899441487454</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="C2" t="n">
-        <v>387.4899441487454</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="D2" t="n">
-        <v>387.4899441487454</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="E2" t="n">
-        <v>387.4899441487454</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="F2" t="n">
-        <v>387.4899441487454</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>2070.181494048073</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.066928185038</v>
+        <v>1712.692079174322</v>
       </c>
       <c r="W2" t="n">
-        <v>1212.675578485385</v>
+        <v>1316.300729474669</v>
       </c>
       <c r="X2" t="n">
-        <v>1212.675578485385</v>
+        <v>904.580730642416</v>
       </c>
       <c r="Y2" t="n">
-        <v>807.3383084402755</v>
+        <v>499.2434605973064</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M3" t="n">
-        <v>1696.494830002562</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N3" t="n">
-        <v>1696.494830002562</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>729.0902991667042</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C4" t="n">
-        <v>557.1177360456202</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D4" t="n">
-        <v>393.8009631723909</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E4" t="n">
-        <v>227.5927573252444</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F4" t="n">
-        <v>55.73098309980486</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1944.726803962681</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1663.01533657071</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>1388.162932743223</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X4" t="n">
-        <v>1145.599036189028</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.2562678787699</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1357.396947955218</v>
+        <v>372.1612950161449</v>
       </c>
       <c r="C5" t="n">
-        <v>930.4962179685185</v>
+        <v>372.1612950161449</v>
       </c>
       <c r="D5" t="n">
-        <v>930.4962179685185</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E5" t="n">
-        <v>504.5192781163761</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M5" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.582582291858</v>
+        <v>1197.346929352785</v>
       </c>
       <c r="Y5" t="n">
-        <v>1777.245312246748</v>
+        <v>792.009659307675</v>
       </c>
     </row>
     <row r="6">
@@ -4626,34 +4628,34 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>751.8547856608809</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L6" t="n">
+        <v>751.8547856608814</v>
+      </c>
+      <c r="M6" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1027.91077931376</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V7" t="n">
-        <v>1961.835816717766</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="W7" t="n">
-        <v>1686.983412890279</v>
+        <v>1732.885187841197</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.419516336084</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1218.076748025826</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022.875956639606</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.975226652906</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D8" t="n">
-        <v>1172.682605837907</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E8" t="n">
-        <v>746.7056659857641</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T8" t="n">
-        <v>2022.875956639606</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U8" t="n">
-        <v>2022.875956639606</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.875956639606</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.875956639606</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="X8" t="n">
-        <v>2022.875956639606</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="Y8" t="n">
-        <v>2022.875956639606</v>
+        <v>1899.618387380149</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764427</v>
+        <v>287.709308798102</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764427</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D10" t="n">
-        <v>96.60472747782725</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E10" t="n">
-        <v>96.60472747782725</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>96.60472747782725</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>96.60472747782725</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>96.60472747782725</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4990,22 +4992,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1863.157226500309</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1582.972778000614</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1301.261310608643</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1026.408906781156</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>783.8450102269608</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1322.50007669869</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C11" t="n">
-        <v>895.5993467119897</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D11" t="n">
         <v>895.5993467119897</v>
@@ -5027,64 +5029,64 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L11" t="n">
-        <v>572.914647509062</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M11" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N11" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O11" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2147.685711035329</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2147.685711035329</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V11" t="n">
-        <v>2147.685711035329</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W11" t="n">
-        <v>2147.685711035329</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X11" t="n">
-        <v>2147.685711035329</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742.34844099022</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K12" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L12" t="n">
-        <v>595.1637600336857</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M12" t="n">
-        <v>595.1637600336857</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N12" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C13" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D13" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E13" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5230,19 +5232,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1745.792697513689</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C14" t="n">
-        <v>1318.891967526989</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D14" t="n">
-        <v>895.5993467119897</v>
+        <v>954.869537369146</v>
       </c>
       <c r="E14" t="n">
-        <v>469.6224068598473</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064037</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L14" t="n">
-        <v>44.49822504924753</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M14" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N14" t="n">
-        <v>595.1637600336857</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O14" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P14" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2151.129967558799</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2151.129967558799</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U14" t="n">
-        <v>2151.129967558799</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V14" t="n">
-        <v>2151.129967558799</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W14" t="n">
-        <v>2151.129967558799</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X14" t="n">
-        <v>2151.129967558799</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y14" t="n">
-        <v>1745.792697513689</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>287.709308798102</v>
       </c>
       <c r="L15" t="n">
-        <v>44.49822504924753</v>
+        <v>287.709308798102</v>
       </c>
       <c r="M15" t="n">
-        <v>44.49822504924753</v>
+        <v>287.709308798102</v>
       </c>
       <c r="N15" t="n">
-        <v>595.1637600336857</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O15" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P15" t="n">
-        <v>1696.494830002562</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q15" t="n">
         <v>1853.185855629757</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H16" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336857</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>595.1637600336857</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>1145.829295018124</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>1651.269438076291</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462377</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>983.3471129133217</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>865.8412094308264</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>762.0012509461114</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>657.2993172190487</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>563.6534869019529</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>469.5997151195569</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>416.2236218818665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>416.2236218818665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>416.2236218818665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>966.8891568663047</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>966.8891568663047</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>966.8891568663047</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N18" t="n">
-        <v>966.8891568663047</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O18" t="n">
-        <v>1210.100240615159</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.765775599597</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>2224.911252462377</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>2224.911252462377</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>2143.587005023631</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>2001.707069321309</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1816.938873240946</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1611.965734380212</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1415.444357213429</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>1251.967010980092</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>1112.274122333384</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1027.91077931376</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>855.9382161926764</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>692.6214433194471</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>526.4132374723006</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>354.551463246861</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>188.2944935410931</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2224.911252462376</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2224.911252462376</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1944.72680396268</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1944.72680396268</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W19" t="n">
-        <v>1669.874400135193</v>
+        <v>1790.689676197778</v>
       </c>
       <c r="X19" t="n">
-        <v>1427.310503580998</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1200.96773527074</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5834,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
         <v>1194.79262694784</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3679.722996434305</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>3679.722996434305</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D22" t="n">
-        <v>3516.406223561076</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4824.7577092045</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U22" t="n">
-        <v>4544.573260704805</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.861793312833</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W22" t="n">
-        <v>3988.009389485347</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="X22" t="n">
-        <v>3745.445492931152</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="Y22" t="n">
-        <v>3679.722996434305</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
         <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T25" t="n">
-        <v>4716.123969816831</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U25" t="n">
-        <v>4716.123969816831</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V25" t="n">
-        <v>4434.41250242486</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W25" t="n">
-        <v>4434.41250242486</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>3845.931202281451</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>543.5554397491844</v>
+        <v>3874.107496910689</v>
       </c>
       <c r="C28" t="n">
-        <v>371.5828766281004</v>
+        <v>3702.134933789605</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>3538.818160916376</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>3372.609955069229</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3200.74818084379</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>4808.032534314694</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>4808.032534314694</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>4533.180130487207</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>4290.616233933012</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>4064.273465622754</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,34 +6481,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>138.8060889717951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.79262694784</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>935.3163081599862</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>935.3163081599862</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9995352867569</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7913294396104</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9295552141708</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G31" t="n">
-        <v>267.672585508403</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1869.241345563992</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1594.388941736505</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1351.82504518231</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>1125.482276872052</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
@@ -6713,37 +6715,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>730.647150085061</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
         <v>2113.800768076616</v>
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>325.1003961287806</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1040.60870410428</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1970.233751723556</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2974.519853142614</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3350.149253855308</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3350.149253855308</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>3350.149253855308</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>3350.149253855308</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>3178.287479629868</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3350.149253855308</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7409,31 +7411,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>2101.340160059446</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>3105.626261478504</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
         <v>5010.768376164567</v>
@@ -7497,16 +7499,16 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1085.715267670341</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>913.7427045492574</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D43" t="n">
-        <v>750.4259316760281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E43" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F43" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7567,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1589.056897064296</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1589.056897064296</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.881236382407</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>825.0237639853792</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>398.1230339986793</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>398.1230339986793</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924753</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505812</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1508.432753835019</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1508.432753835019</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>1508.432753835019</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O44" t="n">
-        <v>1556.689382596036</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P44" t="n">
-        <v>2107.354917580474</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580474</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335517</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1641.263477976562</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1244.872128276909</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1244.872128276909</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1244.872128276909</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924753</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>595.1637600336857</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L45" t="n">
-        <v>1145.829295018124</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.520320645319</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N45" t="n">
-        <v>1302.520320645319</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O45" t="n">
-        <v>1302.520320645319</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>792.5008004748155</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C46" t="n">
-        <v>620.5282373537315</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D46" t="n">
-        <v>620.5282373537315</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E46" t="n">
-        <v>454.3200315065851</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.883781619951</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299714</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221615</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462377</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462377</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1981.571904688276</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1701.387456188581</v>
+        <v>1812.295831968996</v>
       </c>
       <c r="V46" t="n">
-        <v>1419.67598879661</v>
+        <v>1812.295831968996</v>
       </c>
       <c r="W46" t="n">
-        <v>1419.67598879661</v>
+        <v>1537.443428141509</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.009537497139</v>
+        <v>1294.879531587314</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.6667691868811</v>
+        <v>1068.536763277056</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642096</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830993</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O3" t="n">
-        <v>181.4456529820153</v>
+        <v>185.9918631203549</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8216,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8292,19 +8294,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>178.8848775931265</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931272</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132433</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>180.6729970931265</v>
+        <v>268.0669951958126</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>203.2524428583638</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N11" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8766,28 +8768,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>549.9687528290794</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O12" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8930,25 +8932,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132433</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P14" t="n">
-        <v>548.1209608588846</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>260.5451336181239</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>548.1209608588846</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489275</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>268.8396510847014</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204228</v>
+        <v>102.7777664082851</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>224.2932485068573</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9480,7 +9482,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>227.4584616419597</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9492,7 +9494,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>530.2476341400729</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394107</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9659,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>658.7845120283961</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>426.1551116948253</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>464.8736204150517</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>59.38718324550895</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>60.75701611917185</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>254.4681238522048</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1016.408610200736</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>968.5400018884037</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11145,7 +11147,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>534.642907502631</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104035</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>86.13502881159596</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258255</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>181.370543772121</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>384.5745552399217</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11461,7 +11463,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -22559,13 +22561,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>60.73386987794299</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22603,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>102.5888994793919</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>153.4739695386584</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22784,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>94.67325533962133</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22802,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,16 +22840,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>365.6974153751171</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -22999,13 +23001,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>18.44967133088761</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>53.32812537571812</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>297.9103502247829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23030,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>18.70137238127046</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>97.77139277966842</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>142.2630292330365</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23321,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>348.9253100933457</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>22.1301998828651</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>376.1660855798247</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>30.2801491310491</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23561,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.6064085940732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.9379226275349</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>53.32812537571792</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.014069095277</v>
+        <v>97.362944730603</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>60.88629501226373</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>27.77629167419997</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>59.64236734312284</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>214.2564536940931</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>77.41301500250529</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.18544517283162</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25093,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.169760948125884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>106.2309441183566</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>154.1736941407382</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>71.62860959368356</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>267.5747727353516</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>31.57847080217712</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466643.7949527299</v>
+        <v>466643.7949527298</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466643.7949527298</v>
+        <v>774118.5709117294</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774118.5709117295</v>
+        <v>774118.5709117294</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774118.5709117294</v>
+        <v>774118.5709117292</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466643.7949527299</v>
+        <v>774118.5709117294</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>169412.1915076495</v>
       </c>
       <c r="C2" t="n">
-        <v>169412.1915076495</v>
+        <v>169412.1915076494</v>
       </c>
       <c r="D2" t="n">
-        <v>169412.1915076496</v>
+        <v>169412.1915076494</v>
       </c>
       <c r="E2" t="n">
-        <v>169412.1915076495</v>
+        <v>169412.1915076494</v>
       </c>
       <c r="F2" t="n">
-        <v>169412.1915076495</v>
+        <v>169412.1915076494</v>
       </c>
       <c r="G2" t="n">
-        <v>169412.1915076495</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="H2" t="n">
-        <v>281015.2015687235</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="I2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="J2" t="n">
         <v>281015.2015687237</v>
@@ -26341,19 +26343,19 @@
         <v>281015.2015687237</v>
       </c>
       <c r="L2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="M2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="N2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="O2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="P2" t="n">
-        <v>169412.1915076495</v>
+        <v>281015.2015687237</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>198041.7898901689</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173883.8490937447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>43571.76943387372</v>
       </c>
       <c r="C4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387371</v>
       </c>
       <c r="D4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="E4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387371</v>
       </c>
       <c r="F4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387371</v>
       </c>
       <c r="G4" t="n">
-        <v>43571.76943387373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="L4" t="n">
-        <v>72380.62724986373</v>
-      </c>
       <c r="M4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="P4" t="n">
-        <v>43571.76943387373</v>
+        <v>72380.62724986371</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128010.5623783896</v>
+        <v>-128010.5623783895</v>
       </c>
       <c r="C6" t="n">
-        <v>58394.17103634763</v>
+        <v>58394.17103634757</v>
       </c>
       <c r="D6" t="n">
-        <v>58394.17103634772</v>
+        <v>58394.17103634762</v>
       </c>
       <c r="E6" t="n">
-        <v>92021.77103634767</v>
+        <v>92021.77103634762</v>
       </c>
       <c r="F6" t="n">
-        <v>92021.77103634767</v>
+        <v>92021.77103634756</v>
       </c>
       <c r="G6" t="n">
-        <v>92021.77103634764</v>
+        <v>-67157.27775973854</v>
       </c>
       <c r="H6" t="n">
-        <v>-64067.62785707947</v>
+        <v>130884.5121304302</v>
       </c>
       <c r="I6" t="n">
-        <v>130884.5121304302</v>
+        <v>130884.5121304303</v>
       </c>
       <c r="J6" t="n">
-        <v>-14649.15780438627</v>
+        <v>-14649.15780438612</v>
       </c>
       <c r="K6" t="n">
         <v>130884.5121304303</v>
       </c>
       <c r="L6" t="n">
-        <v>130884.5121304302</v>
+        <v>130884.5121304303</v>
       </c>
       <c r="M6" t="n">
         <v>130884.5121304303</v>
       </c>
       <c r="N6" t="n">
-        <v>130884.5121304302</v>
+        <v>130884.5121304303</v>
       </c>
       <c r="O6" t="n">
-        <v>130884.5121304302</v>
+        <v>-42999.33696331439</v>
       </c>
       <c r="P6" t="n">
-        <v>92021.77103634764</v>
+        <v>130884.5121304303</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>556.2278131155939</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>722.5561044572627</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O3" t="n">
-        <v>158.2737632597931</v>
+        <v>162.8199733981327</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>533.7539620806206</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2737632597931</v>
+        <v>245.6677613624793</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O12" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P14" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>238.1458997847906</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>510.5455990486533</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155941</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155941</v>
+        <v>81.00692520345643</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>188.528647712048</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>507.0757444178507</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399789</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36379,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>36.87209653127939</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>225.0481643666183</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>993.3118296884085</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>930.2279594557808</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,7 +37867,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155941</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>48.74406945557187</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155941</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38183,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>447993.5548804235</v>
+        <v>444670.7891825627</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12908190.36482258</v>
+        <v>12908190.36482256</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3555535.184291204</v>
+        <v>3555535.184291207</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7527652.200634215</v>
+        <v>7527652.200634216</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>153.1824608301599</v>
+        <v>84.40674218853266</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -819,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>244.2852625275955</v>
       </c>
       <c r="D5" t="n">
-        <v>324.3864392672284</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>186.8101322129348</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.7395304238318</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>217.4326068496329</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>143.1345615166906</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1353,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>203.9536848873657</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>58.67748875058538</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>24.12958620662116</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>90.76245959443305</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>186.810132212935</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.7163958965524</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>63.12615032060566</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2845,7 +2845,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3094,7 +3094,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0673923170415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3319,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>58.31517967031836</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>60.15466974967035</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>9.807831279347173</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="C2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924752</v>
@@ -4336,13 +4336,13 @@
         <v>957.767218850581</v>
       </c>
       <c r="L2" t="n">
-        <v>1100.603903091852</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091852</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091852</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O2" t="n">
         <v>1100.603903091852</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U2" t="n">
-        <v>2070.181494048073</v>
+        <v>2035.284622791544</v>
       </c>
       <c r="V2" t="n">
-        <v>1712.692079174322</v>
+        <v>1677.795207917793</v>
       </c>
       <c r="W2" t="n">
-        <v>1316.300729474669</v>
+        <v>1281.40385821814</v>
       </c>
       <c r="X2" t="n">
-        <v>904.580730642416</v>
+        <v>869.6838593858872</v>
       </c>
       <c r="Y2" t="n">
-        <v>499.2434605973064</v>
+        <v>464.3465893407776</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="M3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="N3" t="n">
-        <v>595.1637600336854</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="O3" t="n">
         <v>756.3555336978368</v>
@@ -4467,22 +4467,22 @@
         <v>268.5772905989112</v>
       </c>
       <c r="C4" t="n">
-        <v>96.60472747782725</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924752</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924752</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924752</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924752</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924752</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.1612950161449</v>
+        <v>291.2510154811622</v>
       </c>
       <c r="C5" t="n">
-        <v>372.1612950161449</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D5" t="n">
         <v>44.49822504924752</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002561</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058788</v>
+        <v>1862.189048931928</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185037</v>
+        <v>1504.699634058178</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185037</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X5" t="n">
-        <v>1197.346929352785</v>
+        <v>696.5882855262719</v>
       </c>
       <c r="Y5" t="n">
-        <v>792.009659307675</v>
+        <v>291.2510154811622</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764434</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L6" t="n">
-        <v>751.8547856608814</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>2007.737591668684</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>2007.737591668684</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>1732.885187841197</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.689568770218</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.788838783518</v>
+        <v>1115.2282425197</v>
       </c>
       <c r="D8" t="n">
-        <v>930.4962179685185</v>
+        <v>1115.2282425197</v>
       </c>
       <c r="E8" t="n">
-        <v>504.5192781163761</v>
+        <v>689.2513026675573</v>
       </c>
       <c r="F8" t="n">
-        <v>79.39509630577631</v>
+        <v>264.1271208569575</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577631</v>
+        <v>264.1271208569575</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>572.9146475090618</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.618387380149</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1899.618387380149</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1899.618387380149</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.618387380149</v>
+        <v>1542.1289725064</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>287.709308798102</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>783.8450102269608</v>
+        <v>554.589532101539</v>
       </c>
       <c r="C10" t="n">
-        <v>783.8450102269608</v>
+        <v>382.616968980455</v>
       </c>
       <c r="D10" t="n">
-        <v>620.5282373537315</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1863.157226500309</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U10" t="n">
-        <v>1582.972778000614</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V10" t="n">
-        <v>1301.261310608643</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W10" t="n">
-        <v>1026.408906781156</v>
+        <v>1213.662165678057</v>
       </c>
       <c r="X10" t="n">
-        <v>783.8450102269608</v>
+        <v>971.0982691238626</v>
       </c>
       <c r="Y10" t="n">
-        <v>783.8450102269608</v>
+        <v>744.7555008136046</v>
       </c>
     </row>
     <row r="11">
@@ -5029,58 +5029,58 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N11" t="n">
-        <v>1696.494830002561</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462376</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462376</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="X11" t="n">
         <v>2165.64106180522</v>
@@ -5102,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L12" t="n">
-        <v>838.37484378254</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M12" t="n">
-        <v>838.37484378254</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N12" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O12" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P12" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U13" t="n">
-        <v>1764.398243894584</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>1764.398243894584</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>1764.398243894584</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1805.062888170846</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C14" t="n">
-        <v>1378.162158184146</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D14" t="n">
-        <v>954.869537369146</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E14" t="n">
-        <v>528.8925975170035</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F14" t="n">
-        <v>103.7684157064037</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G14" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H14" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924752</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L14" t="n">
-        <v>572.9146475090618</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M14" t="n">
-        <v>1123.5801824935</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N14" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O14" t="n">
-        <v>2224.911252462376</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2133.232000346788</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>1912.306429391421</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>1912.306429391421</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>1554.81701451767</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462376</v>
+        <v>1158.425664818017</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.911252462376</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.911252462376</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>287.709308798102</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
-        <v>287.709308798102</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M15" t="n">
-        <v>287.709308798102</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N15" t="n">
-        <v>838.37484378254</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O15" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P15" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5460,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,28 +5524,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1790.689676197778</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1503.646164133598</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1503.646164133598</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2129.375202991802</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3845.931202281451</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>3845.931202281451</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3845.931202281451</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3845.931202281451</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6244,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6305,25 +6305,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>739.6560874287652</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>739.6560874287652</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3874.107496910689</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3702.134933789605</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3538.818160916376</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3372.609955069229</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3200.74818084379</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4871.796322517326</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4808.032534314694</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4808.032534314694</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4533.180130487207</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4290.616233933012</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4064.273465622754</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
@@ -6709,37 +6709,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
         <v>3365.887132399955</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427963</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>3034.491211138022</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>3034.491211138022</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E34" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004481</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450286</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140028</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>325.1003961287806</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1040.60870410428</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L35" t="n">
-        <v>1970.233751723556</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2974.519853142614</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3950.770911629315</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7125,22 +7125,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7262,19 +7262,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>1364.825557038856</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.825557038856</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>742.8905159778161</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>742.8905159778161</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>742.8905159778161</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M42" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C43" t="n">
-        <v>265.6194862790578</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,19 +7636,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,28 +7657,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3086.290586304201</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>3931.435236455013</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7730,25 +7730,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.761792120201</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1470.761792120201</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1470.761792120201</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>878.3707945649905</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>706.3982314439065</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>706.3982314439065</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1812.295831968996</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1812.295831968996</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1537.443428141509</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1294.879531587314</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1068.536763277056</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>182.5915214642096</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,7 +7993,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258253</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
@@ -8072,7 +8072,7 @@
         <v>577.5708413291355</v>
       </c>
       <c r="O3" t="n">
-        <v>185.9918631203549</v>
+        <v>178.4700015426662</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204226</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366444</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931272</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298235</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>463.1564485244923</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132433</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>268.0669951958126</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O11" t="n">
-        <v>571.1449214366444</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
-        <v>549.9687528290794</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L14" t="n">
-        <v>572.0660045132433</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9005,22 +9005,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>260.5451336181239</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9029,7 +9029,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
@@ -9251,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,10 +9260,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>102.7777664082851</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9406,10 +9406,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>227.4584616419597</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>995.9774475394107</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9953,28 +9953,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>658.7845120283961</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>254.4681238522048</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10600,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>749.810964578424</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.408610200736</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11077,7 +11077,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>54.56363491934506</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q45" t="n">
-        <v>384.5745552399217</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>102.5888994793919</v>
+        <v>171.3646181210192</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22707,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -22722,10 +22722,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>19.29091348988686</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>178.3464601592373</v>
       </c>
       <c r="D5" t="n">
-        <v>94.67325533962133</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22846,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>68.10191868181126</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>53.32812537571812</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.9103502247829</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>77.45708789107266</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>97.77139277966842</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>68.15019490184636</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23317,13 +23317,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>295.2370319744276</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>348.9253100933457</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>376.1660855798247</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>12.56116159115794</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23673,7 +23673,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>53.32812537571792</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.362944730603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>214.2564536940931</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>47.1854451728326</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18544517283162</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>106.2309441183566</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>267.5747727353516</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466643.7949527298</v>
+        <v>466643.7949527299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466643.7949527298</v>
+        <v>466643.7949527299</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774118.5709117295</v>
+        <v>774118.5709117294</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774118.5709117292</v>
+        <v>774118.5709117294</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>169412.1915076494</v>
+      </c>
+      <c r="C2" t="n">
         <v>169412.1915076495</v>
       </c>
-      <c r="C2" t="n">
-        <v>169412.1915076494</v>
-      </c>
       <c r="D2" t="n">
-        <v>169412.1915076494</v>
+        <v>169412.1915076495</v>
       </c>
       <c r="E2" t="n">
         <v>169412.1915076494</v>
@@ -26328,10 +26328,10 @@
         <v>169412.1915076494</v>
       </c>
       <c r="G2" t="n">
+        <v>281015.2015687238</v>
+      </c>
+      <c r="H2" t="n">
         <v>281015.2015687237</v>
-      </c>
-      <c r="H2" t="n">
-        <v>281015.2015687236</v>
       </c>
       <c r="I2" t="n">
         <v>281015.2015687237</v>
@@ -26340,16 +26340,16 @@
         <v>281015.2015687237</v>
       </c>
       <c r="K2" t="n">
-        <v>281015.2015687237</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="L2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="M2" t="n">
-        <v>281015.2015687237</v>
+        <v>281015.2015687235</v>
       </c>
       <c r="N2" t="n">
-        <v>281015.2015687237</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="O2" t="n">
         <v>281015.2015687237</v>
@@ -26420,43 +26420,43 @@
         <v>43571.76943387372</v>
       </c>
       <c r="C4" t="n">
-        <v>43571.76943387371</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="D4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="E4" t="n">
-        <v>43571.76943387371</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="F4" t="n">
-        <v>43571.76943387371</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="G4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="H4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72380.6272498637</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="P4" t="n">
         <v>72380.62724986371</v>
@@ -26475,43 +26475,43 @@
         <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128010.5623783895</v>
+        <v>-128619.6080908792</v>
       </c>
       <c r="C6" t="n">
-        <v>58394.17103634757</v>
+        <v>57785.12532385798</v>
       </c>
       <c r="D6" t="n">
-        <v>58394.17103634762</v>
+        <v>57785.12532385794</v>
       </c>
       <c r="E6" t="n">
-        <v>92021.77103634762</v>
+        <v>91412.72532385791</v>
       </c>
       <c r="F6" t="n">
-        <v>92021.77103634756</v>
+        <v>91412.72532385791</v>
       </c>
       <c r="G6" t="n">
-        <v>-67157.27775973854</v>
+        <v>-67208.3084219228</v>
       </c>
       <c r="H6" t="n">
-        <v>130884.5121304302</v>
+        <v>130833.481468246</v>
       </c>
       <c r="I6" t="n">
-        <v>130884.5121304303</v>
+        <v>130833.481468246</v>
       </c>
       <c r="J6" t="n">
-        <v>-14649.15780438612</v>
+        <v>-14700.1884665705</v>
       </c>
       <c r="K6" t="n">
-        <v>130884.5121304303</v>
+        <v>130833.4814682459</v>
       </c>
       <c r="L6" t="n">
-        <v>130884.5121304303</v>
+        <v>130833.481468246</v>
       </c>
       <c r="M6" t="n">
-        <v>130884.5121304303</v>
+        <v>130833.4814682458</v>
       </c>
       <c r="N6" t="n">
-        <v>130884.5121304303</v>
+        <v>130833.4814682459</v>
       </c>
       <c r="O6" t="n">
-        <v>-42999.33696331439</v>
+        <v>-43050.36762549877</v>
       </c>
       <c r="P6" t="n">
-        <v>130884.5121304303</v>
+        <v>130833.481468246</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -34704,16 +34704,16 @@
         <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>144.2794790315867</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155939</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>556.2278131155939</v>
       </c>
       <c r="O3" t="n">
-        <v>162.8199733981327</v>
+        <v>155.2981118204439</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155939</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>533.7539620806203</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806205</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>245.6677613624793</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O11" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
-        <v>527.4536661148499</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L14" t="n">
-        <v>533.7539620806205</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>238.1458997847906</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>81.00692520345643</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36126,10 +36126,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>205.0592278086264</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>958.5461846399789</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>636.2694253141665</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>225.0481643666183</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37320,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>726.6390748562018</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>993.3118296884085</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37797,7 +37797,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>19.53098502454859</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q45" t="n">
-        <v>361.8275169509432</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
